--- a/Data/BMSTestCase.xlsx
+++ b/Data/BMSTestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13120" activeTab="1"/>
+    <workbookView windowWidth="29340" windowHeight="13120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
